--- a/teaching/traditional_assets/database/data/pakistan/pakistan_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_reinsurance.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07719999999999999</v>
+        <v>0.0542</v>
       </c>
       <c r="E2">
-        <v>0.105</v>
+        <v>0.0602</v>
       </c>
       <c r="G2">
-        <v>0.1736842105263158</v>
+        <v>0.2128099173553719</v>
       </c>
       <c r="H2">
-        <v>0.1736842105263158</v>
+        <v>0.2128099173553719</v>
       </c>
       <c r="I2">
-        <v>0.2068965517241379</v>
+        <v>0.3347107438016529</v>
       </c>
       <c r="J2">
-        <v>0.1438481942460722</v>
+        <v>0.2474767561983471</v>
       </c>
       <c r="K2">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L2">
-        <v>0.2141560798548094</v>
+        <v>0.2458677685950413</v>
       </c>
       <c r="M2">
-        <v>4.55</v>
+        <v>3.35</v>
       </c>
       <c r="N2">
-        <v>0.07996485061511424</v>
+        <v>0.06492248062015504</v>
       </c>
       <c r="O2">
-        <v>0.385593220338983</v>
+        <v>0.2815126050420168</v>
       </c>
       <c r="P2">
-        <v>4.55</v>
+        <v>3.35</v>
       </c>
       <c r="Q2">
-        <v>0.07996485061511424</v>
+        <v>0.06492248062015504</v>
       </c>
       <c r="R2">
-        <v>0.385593220338983</v>
+        <v>0.2815126050420168</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>17.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="V2">
-        <v>0.3128295254833041</v>
+        <v>0.1556201550387597</v>
       </c>
       <c r="W2">
-        <v>0.1351660939289805</v>
+        <v>0.1825153374233129</v>
       </c>
       <c r="X2">
-        <v>0.126047664955347</v>
+        <v>0.1475426634001101</v>
       </c>
       <c r="Y2">
-        <v>0.009118428973633574</v>
+        <v>0.03497267402320281</v>
       </c>
       <c r="Z2">
-        <v>0.8020378457059681</v>
+        <v>1.021097046413502</v>
       </c>
       <c r="AA2">
-        <v>0.1153716958218134</v>
+        <v>0.2526977848101266</v>
       </c>
       <c r="AB2">
-        <v>0.126047664955347</v>
+        <v>0.1472519475124879</v>
       </c>
       <c r="AC2">
-        <v>-0.01067596913353358</v>
+        <v>0.1054458372976386</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="AG2">
-        <v>-17.8</v>
+        <v>-7.875999999999999</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.002975615411369169</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.002526495389966204</v>
       </c>
       <c r="AJ2">
-        <v>-0.4552429667519182</v>
+        <v>-0.1801299057725734</v>
       </c>
       <c r="AK2">
-        <v>-0.3755274261603375</v>
+        <v>-0.1488171717935152</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.009506172839506173</v>
+      </c>
+      <c r="AO2">
+        <v>1800</v>
       </c>
       <c r="AP2">
-        <v>-1.547826086956522</v>
+        <v>-0.4861728395061728</v>
+      </c>
+      <c r="AQ2">
+        <v>1800</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.07719999999999999</v>
+        <v>0.0542</v>
       </c>
       <c r="E3">
-        <v>0.105</v>
+        <v>0.0602</v>
       </c>
       <c r="G3">
-        <v>0.1736842105263158</v>
+        <v>0.2128099173553719</v>
       </c>
       <c r="H3">
-        <v>0.1736842105263158</v>
+        <v>0.2128099173553719</v>
       </c>
       <c r="I3">
-        <v>0.2068965517241379</v>
+        <v>0.3347107438016529</v>
       </c>
       <c r="J3">
-        <v>0.1438481942460722</v>
+        <v>0.2474767561983471</v>
       </c>
       <c r="K3">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L3">
-        <v>0.2141560798548094</v>
+        <v>0.2458677685950413</v>
       </c>
       <c r="M3">
-        <v>4.55</v>
+        <v>3.35</v>
       </c>
       <c r="N3">
-        <v>0.07996485061511424</v>
+        <v>0.06492248062015504</v>
       </c>
       <c r="O3">
-        <v>0.385593220338983</v>
+        <v>0.2815126050420168</v>
       </c>
       <c r="P3">
-        <v>4.55</v>
+        <v>3.35</v>
       </c>
       <c r="Q3">
-        <v>0.07996485061511424</v>
+        <v>0.06492248062015504</v>
       </c>
       <c r="R3">
-        <v>0.385593220338983</v>
+        <v>0.2815126050420168</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>17.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="V3">
-        <v>0.3128295254833041</v>
+        <v>0.1556201550387597</v>
       </c>
       <c r="W3">
-        <v>0.1351660939289805</v>
+        <v>0.1825153374233129</v>
       </c>
       <c r="X3">
-        <v>0.126047664955347</v>
+        <v>0.1475426634001101</v>
       </c>
       <c r="Y3">
-        <v>0.009118428973633574</v>
+        <v>0.03497267402320281</v>
       </c>
       <c r="Z3">
-        <v>0.8020378457059681</v>
+        <v>1.021097046413502</v>
       </c>
       <c r="AA3">
-        <v>0.1153716958218134</v>
+        <v>0.2526977848101266</v>
       </c>
       <c r="AB3">
-        <v>0.126047664955347</v>
+        <v>0.1472519475124879</v>
       </c>
       <c r="AC3">
-        <v>-0.01067596913353358</v>
+        <v>0.1054458372976386</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="AG3">
-        <v>-17.8</v>
+        <v>-7.875999999999999</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.002975615411369169</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.002526495389966204</v>
       </c>
       <c r="AJ3">
-        <v>-0.4552429667519182</v>
+        <v>-0.1801299057725734</v>
       </c>
       <c r="AK3">
-        <v>-0.3755274261603375</v>
+        <v>-0.1488171717935152</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.009506172839506173</v>
+      </c>
+      <c r="AO3">
+        <v>1800</v>
       </c>
       <c r="AP3">
-        <v>-1.547826086956522</v>
+        <v>-0.4861728395061728</v>
+      </c>
+      <c r="AQ3">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
